--- a/DATAAGRO_Incendios/Glosario_fuente.xlsx
+++ b/DATAAGRO_Incendios/Glosario_fuente.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\DATAAGRO_Incendios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4603A84B-18AF-470F-A4C3-5932225C43CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7106A48-3963-462C-B602-F76169BE9430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9D058F0E-872D-485F-A860-63C039E0AF33}"/>
+    <workbookView xWindow="260" yWindow="0" windowWidth="13810" windowHeight="9710" firstSheet="1" activeTab="1" xr2:uid="{9D058F0E-872D-485F-A860-63C039E0AF33}"/>
   </bookViews>
   <sheets>
     <sheet name="Glosario_incendios" sheetId="1" r:id="rId1"/>
-    <sheet name="Fuente" sheetId="2" r:id="rId2"/>
+    <sheet name="Causas_jerarquía" sheetId="3" r:id="rId2"/>
+    <sheet name="Fuente" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="237">
   <si>
     <t>Incendio forestal</t>
   </si>
@@ -107,13 +108,652 @@
   </si>
   <si>
     <t>Número de veces que se repite un incendio en un áreas  geográfica.</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>Otras Actividades</t>
+  </si>
+  <si>
+    <t>Actividades de Extinción Incendios Forestales, Incendios Estructurales u otros.</t>
+  </si>
+  <si>
+    <t>Operaciones en Vías Férreas.</t>
+  </si>
+  <si>
+    <t>Actividades Recreativas.</t>
+  </si>
+  <si>
+    <t>Faena agrícolas y pecuarias.</t>
+  </si>
+  <si>
+    <t>Faenas forestales.</t>
+  </si>
+  <si>
+    <t>Tránsito de personas, vehículos o aeronaves.</t>
+  </si>
+  <si>
+    <t>Quema de desechos.</t>
+  </si>
+  <si>
+    <t>Accidentes eléctricos</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>Incendios intencionales</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>Incendios naturales</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>Incendios de causa desconocida</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>Accidentales</t>
+  </si>
+  <si>
+    <t>Intencionales</t>
+  </si>
+  <si>
+    <t>Naturales</t>
+  </si>
+  <si>
+    <t>Desconocidas</t>
+  </si>
+  <si>
+    <t>Cod_general</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Cod_específico</t>
+  </si>
+  <si>
+    <t>QUEMA LEGAL DE DESECHOS DE COSECHA FORESTAL (QUEMA PARA REFORESTACIÓN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1 </t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>1.1.4</t>
+  </si>
+  <si>
+    <t>1.1.5</t>
+  </si>
+  <si>
+    <t>1.1.6</t>
+  </si>
+  <si>
+    <t>1.1.7</t>
+  </si>
+  <si>
+    <t>1.1.8</t>
+  </si>
+  <si>
+    <t>1.1.9</t>
+  </si>
+  <si>
+    <t>1.1.10</t>
+  </si>
+  <si>
+    <t>1.1.11</t>
+  </si>
+  <si>
+    <t>1.1.12</t>
+  </si>
+  <si>
+    <t>1.1.13</t>
+  </si>
+  <si>
+    <t>1.1.14</t>
+  </si>
+  <si>
+    <t>1.1.15</t>
+  </si>
+  <si>
+    <t>1.1.16</t>
+  </si>
+  <si>
+    <t>1.1.17</t>
+  </si>
+  <si>
+    <t>1.1.18</t>
+  </si>
+  <si>
+    <t>1.1.19</t>
+  </si>
+  <si>
+    <t>1.1.20</t>
+  </si>
+  <si>
+    <t>1.1.21</t>
+  </si>
+  <si>
+    <t>1.1.22</t>
+  </si>
+  <si>
+    <t>1.1.23</t>
+  </si>
+  <si>
+    <t>QUEMA ILEGAL DE DESECHOS DE COSECHA FORESTAL (QUEMA PARA REFORESTACIÓN)</t>
+  </si>
+  <si>
+    <t>REBROTE DE QUEMA LEGAL DE COSECHA FORESTAL</t>
+  </si>
+  <si>
+    <t>REBROTE DE QUEMA ILEGAL DE COSECHA FORESTAL</t>
+  </si>
+  <si>
+    <t>QUEMA LEGAL DE HABILITACIÓN DE TERRENO FORESTAL (QUEMA PARA FORESTACIÓN)</t>
+  </si>
+  <si>
+    <t>QUEMA ILEGAL DE HABILITACIÓN DE TERRENO FORESTAL (QUEMA PARA FORESTACIÓN)</t>
+  </si>
+  <si>
+    <t>REBROTE DE QUEMA LEGAL EN HABILITACIÓN DE TERRENO FORESTAL</t>
+  </si>
+  <si>
+    <t>REBROTE DE QUEMA ILEGAL EN HABILITACIÓN DE TERRENO FORESTAL</t>
+  </si>
+  <si>
+    <t>QUEMA LEGAL PARA REDUCCIÓN DE COMBUSTIBLE (SILVICULTURA PREVENTIVA)</t>
+  </si>
+  <si>
+    <t>QUEMA ILEGAL PARA REDUCCIÓN DE COMBUSTIBLE (SILVICULTURA PREVENTIVA)</t>
+  </si>
+  <si>
+    <t>REBROTE DE QUEMA LEGAL EN REDUCCIÓN DE COMBUSTIBLE (SILVICULTURA PREVENTIVA)</t>
+  </si>
+  <si>
+    <t>REBROTE DE QUEMA ILEGAL EN REDUCCIÓN DE COMBUSTIBLE (SILVICULTURA PREVENTIVA)</t>
+  </si>
+  <si>
+    <t>QUEMA LEGAL CON OTROS FINES FORESTALES (QUEMA SANITARIA, MANEJO DE VIDA SILVESTRE, ETC.)</t>
+  </si>
+  <si>
+    <t>QUEMA ILEGAL CON OTROS FINES FORESTALES (QUEMA SANITARIA, MANEJO DE VIDA SILVESTRE, ETC.)</t>
+  </si>
+  <si>
+    <t>REBROTE DE QUEMA LEGAL CON OTROS FINES FORESTALES</t>
+  </si>
+  <si>
+    <t>REBROTE DE QUEMA ILEGAL CON OTROS FINES FORESTALES</t>
+  </si>
+  <si>
+    <t>USO DE FUEGO EN ÁREA DE CAMPAMENTO FORESTAL</t>
+  </si>
+  <si>
+    <t>CHISPA DE MOTOSIERRA EN FAENA DE FORESTAL</t>
+  </si>
+  <si>
+    <t>CHISPA  MAQUINARIA EN FAENA FORESTAL (SKIDDER, TRACTOR, VEHÍCULO LIVIANO Y PESADO)</t>
+  </si>
+  <si>
+    <t>INCENDIO DE MAQUINARIA EN FAENA FORESTAL (CAMIÓN, SKIDDER, MOTOSIERRA, ASERRADERO)</t>
+  </si>
+  <si>
+    <t>CORTE DE CABLE ELÉCTRICO PRODUCTO DE FAENA FORESTAL</t>
+  </si>
+  <si>
+    <t>OTROS INCENDIOS POR FAENAS FORESTALES NO CLASIFICADAS</t>
+  </si>
+  <si>
+    <t>USO DE FUEGO EN ZONAS DE FAENAS FORESTALES (ALIMENTACIÓN, CALEFACCIÓN, OTROS)</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>1.2.3</t>
+  </si>
+  <si>
+    <t>1.2.4</t>
+  </si>
+  <si>
+    <t>1.2.5</t>
+  </si>
+  <si>
+    <t>1.2.6</t>
+  </si>
+  <si>
+    <t>1.2.7</t>
+  </si>
+  <si>
+    <t>1.2.8</t>
+  </si>
+  <si>
+    <t>1.2.9</t>
+  </si>
+  <si>
+    <t>1.2.10</t>
+  </si>
+  <si>
+    <t>QUEMA LEGAL DE DESECHOS AGRÍCOLAS</t>
+  </si>
+  <si>
+    <t>QUEMA ILEGAL DE DESECHOS AGRÍCOLAS</t>
+  </si>
+  <si>
+    <t>QUEMA LEGAL CON OTROS FINES AGRÍCOLAS (QUEMA SANITARIA, OTRAS)</t>
+  </si>
+  <si>
+    <t>QUEMA ILEGAL CON OTROS FINES AGRÍCOLA (QUEMA SANITARIA, OTRAS)</t>
+  </si>
+  <si>
+    <t>CHISPA DE MAQUINARIA EN FAENA AGRÍCOLAS</t>
+  </si>
+  <si>
+    <t>CORTE DE CABLE ELÉCTRICO PRODUCTO DE FAENA AGRÍCOLAS</t>
+  </si>
+  <si>
+    <t>USO DE FUEGO EN ACTIVIDADES PECUARIAS (MANEJO DE PRADERAS, OTRAS)</t>
+  </si>
+  <si>
+    <t>INCENDIO DE  MAQUINARIA AGRÍCOLA</t>
+  </si>
+  <si>
+    <t>USO DE FUEGO EN ZONAS DE FAENAS AGROPECUARIAS (ALIMENTACIÓN Y CALEFACCIÓN)</t>
+  </si>
+  <si>
+    <t>OTROS INCENDIOS POR FAENAS AGROPECUARIAS NO CLASIFICADAS</t>
+  </si>
+  <si>
+    <t>Confección y/o Extracción Productos Secundarios del bosque.</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
+    <t>1.3.2</t>
+  </si>
+  <si>
+    <t>1.3.3</t>
+  </si>
+  <si>
+    <t>1.3.4</t>
+  </si>
+  <si>
+    <t>ELABORACIÓN DE CARBÓN</t>
+  </si>
+  <si>
+    <t>USO DE FUEGO EN FAENA DE EXTRACCIÓN DE HONGOS Y FRUTOS (ROSA MOSQUETA, FRUTILLA, PIÑONES, COCOS DE PALMA, MIEL DE ABEJA, HONGOS OTROS)</t>
+  </si>
+  <si>
+    <t>USO DE FUEGO EN FAENA DE EXTRACCIÓN Y/O CONFECCIÓN DE LEÑA NO INDUSTRIAL</t>
+  </si>
+  <si>
+    <t>USO DE FUEGO EN FAENA DE EXTRACCIÓN DE OTROS PRODUCTOS SECUNDARIOS DEL BOSQUE (CORTEZA QUILLAY, HOJA DE BOLDO, MIEL DE PALMA)</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
+  </si>
+  <si>
+    <t>1.4.2</t>
+  </si>
+  <si>
+    <t>1.4.3</t>
+  </si>
+  <si>
+    <t>1.4.4</t>
+  </si>
+  <si>
+    <t>1.4.5</t>
+  </si>
+  <si>
+    <t>1.4.6</t>
+  </si>
+  <si>
+    <t>USO DE FUEGO PARA ACTIVIDADES RECREATIVAS EN ÁREAS NO HABILITADAS  (EXCURSIONISTAS, PASEANTES, ASADOS)</t>
+  </si>
+  <si>
+    <t>USO DE FUEGO EN ACTIVIDADES DE CAZA</t>
+  </si>
+  <si>
+    <t>USO DE FUEGO EN ÁREAS DE CAMPING</t>
+  </si>
+  <si>
+    <t>USO DE FUEGO EN ACTIVIDADES DE PESCA</t>
+  </si>
+  <si>
+    <t>NIÑOS JUGANDO CON FUEGO</t>
+  </si>
+  <si>
+    <t>FUEGOS ARTIFICIALES</t>
+  </si>
+  <si>
+    <t>1.5.1</t>
+  </si>
+  <si>
+    <t>1.5.2</t>
+  </si>
+  <si>
+    <t>1.5.3</t>
+  </si>
+  <si>
+    <t>1.5.4</t>
+  </si>
+  <si>
+    <t>CHISPA POR FRICCIÓN EN LÍNEA FÉRREA POR PASO DE TREN O MOTOCARRIL</t>
+  </si>
+  <si>
+    <t>USO DE FUEGO EN FAENA  DE MANTENCIÓN DE LÍNEAS FÉRREAS</t>
+  </si>
+  <si>
+    <t>ACCIDENTE FERROVIARIO</t>
+  </si>
+  <si>
+    <t>CHISPA O CORTE DE CABLES DE TENDIDO ELÉCTRICO DE LÍNEA FÉRREA</t>
+  </si>
+  <si>
+    <t>1.6.1</t>
+  </si>
+  <si>
+    <t>1.7.1</t>
+  </si>
+  <si>
+    <t>1.8.1</t>
+  </si>
+  <si>
+    <t>1.9.1</t>
+  </si>
+  <si>
+    <t>2.1.2</t>
+  </si>
+  <si>
+    <t>1.6.2</t>
+  </si>
+  <si>
+    <t>1.6.3</t>
+  </si>
+  <si>
+    <t>REBROTE DE INCENDIO ANTERIOR, DECLARADO CONTROLADO</t>
+  </si>
+  <si>
+    <t>CAÍDA DE AVIÓN, HELICÓPTERO U OTRAS AERONAVES, EN OPERACIONES DE COMBATE DE INCENDIOS FORESTALES O RECONOCIMIENTOS DE ZONAS</t>
+  </si>
+  <si>
+    <t>INCENDIO ESTRUCTURAL (CAMPAMENTO FORESTAL, CASA HABITACIÓN U OTRAS EDIFICACIONES)</t>
+  </si>
+  <si>
+    <t>3.1.3</t>
+  </si>
+  <si>
+    <t>1.7.2</t>
+  </si>
+  <si>
+    <t>1.7.3</t>
+  </si>
+  <si>
+    <t>1.7.4</t>
+  </si>
+  <si>
+    <t>1.7.5</t>
+  </si>
+  <si>
+    <t>USO DE FUEGO POR TRANSEÚNTES</t>
+  </si>
+  <si>
+    <t>USO DE FUEGO EN ACTIVIDADES RELIGIOSAS, DE PEREGRINACIÓN Y DE VENERACIÓN (ANIMITAS)</t>
+  </si>
+  <si>
+    <t>ACCIDENTE O INCENDIO DE VEHÍCULO EN TRÁNSITO</t>
+  </si>
+  <si>
+    <t>USO DEL FUEGO PARA SEÑALIZACIÓN EN LA RUTA</t>
+  </si>
+  <si>
+    <t>CAÍDA DE AVIÓN, HELICÓPTERO U OTRA AERONAVE EN ACTIVIDADES U OPERACIONES DISTINTAS DE INCENDIOS FORESTALES</t>
+  </si>
+  <si>
+    <t>1.8.2</t>
+  </si>
+  <si>
+    <t>1.8.3</t>
+  </si>
+  <si>
+    <t>1.8.4</t>
+  </si>
+  <si>
+    <t>1.8.5</t>
+  </si>
+  <si>
+    <t>1.8.6</t>
+  </si>
+  <si>
+    <t>1.8.7</t>
+  </si>
+  <si>
+    <t>1.8.8</t>
+  </si>
+  <si>
+    <t>1.8.9</t>
+  </si>
+  <si>
+    <t>1.8.10</t>
+  </si>
+  <si>
+    <t>1.8.11</t>
+  </si>
+  <si>
+    <t>1.8.12</t>
+  </si>
+  <si>
+    <t>1.8.13</t>
+  </si>
+  <si>
+    <t>1.8.14</t>
+  </si>
+  <si>
+    <t>QUEMA DE BASURAS, DESECHOS VEGETALES U OTROS NO CLASIFICADOS (DISTINTOS DE VERTEDEROS O BASURALES AUTORIZADOS)</t>
+  </si>
+  <si>
+    <t>QUEMA LEGAL DE ASERRÍN O ASERRÍN ENCENDIDO</t>
+  </si>
+  <si>
+    <t>QUEMA ILEGAL DE ASERRÍN O ASERRÍN ENCENDIDO</t>
+  </si>
+  <si>
+    <t>QUEMA LEGAL PARA LIMPIA DE CAMINOS, CANALES, CUNETAS EN PREDIOS RÚSTICOS</t>
+  </si>
+  <si>
+    <t>QUEMA ILEGAL PARA LIMPIA DE CAMINOS, CANALES, CUNETAS EN PREDIOS RÚSTICOS</t>
+  </si>
+  <si>
+    <t>REBROTE DE QUEMA LEGAL PARA LIMPIA DE CAMINOS, CANALES, CUNETAS EN PREDIOS RÚSTICOS</t>
+  </si>
+  <si>
+    <t>REBROTE DE QUEMA ILEGAL PARA LIMPIA DE CAMINOS, CANALES, CUNETAS EN PREDIOS RÚSTICOS</t>
+  </si>
+  <si>
+    <t>QUEMA LEGAL PARA LIMPIA DE CAMINOS, CANALES, CUNETAS EN CAMINOS PÚBLICOS</t>
+  </si>
+  <si>
+    <t>QUEMA ILEGAL PARA LIMPIA DE CAMINOS, CANALES, CUNETAS EN CAMINOS PÚBLICOS</t>
+  </si>
+  <si>
+    <t>REBROTE DE QUEMA LEGAL PARA LIMPIA DE CAMINOS, CANALES, CUNETAS EN CAMINOS PÚBLICOS</t>
+  </si>
+  <si>
+    <t>REBROTE DE QUEMA ILEGAL PARA LIMPIA DE CAMINOS, CANALES, CUNETAS EN CAMINOS PÚBLICOS</t>
+  </si>
+  <si>
+    <t>QUEMA DE DESECHOS INDUSTRIALES</t>
+  </si>
+  <si>
+    <t>USO DE FUEGO PARA ELIMINACIÓN DE FAUNA NO DESEADA  (ROEDORES, REPTILES, AVISPAS, OTROS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENCENDIDO DE VERTEDEROS O BASURALES AUTORIZADOS </t>
+  </si>
+  <si>
+    <t>1.9.2</t>
+  </si>
+  <si>
+    <t>1.9.3</t>
+  </si>
+  <si>
+    <t>1.9.4</t>
+  </si>
+  <si>
+    <t>CORTE DE CABLE ELÉCTRICO POR CAÍDA DE RAMA (EXCEPTO POR FAENA FORESTAL)</t>
+  </si>
+  <si>
+    <t>CORTE DE CABLE POR CRECIMIENTO DE VEGETACIÓN BAJO TENDIDO ELÉCTRICO</t>
+  </si>
+  <si>
+    <t>CORTE DE CABLE POR CAÍDA DE TENDIDO ELÉCTRICO O POSTACIÓN</t>
+  </si>
+  <si>
+    <t>CORTE DE CABLE POR OTRO ACCIDENTE O ACCIÓN NO CLASIFICADA</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>2.1.3</t>
+  </si>
+  <si>
+    <t>2.1.4</t>
+  </si>
+  <si>
+    <t>2.1.5</t>
+  </si>
+  <si>
+    <t>2.1.6</t>
+  </si>
+  <si>
+    <t>PIRÓMANO (INSANO MENTAL QUE DISFRUTA DEL FUEGO)</t>
+  </si>
+  <si>
+    <t>CONFLICTO ENTRE PERSONAS (VENGANZA, CONFLICTOS FAMILIARES Y  PASIONALES, OTROS)</t>
+  </si>
+  <si>
+    <t>ATENTADO INCENDIARIO POR CONFLICTO</t>
+  </si>
+  <si>
+    <t>CONFLICTO TERRITORIAL O PATRIMONIAL</t>
+  </si>
+  <si>
+    <t>PROVOCADO POR PERSONA ENFERMA (LOCO O DEMENTE, EXCLUIDO EL PIRÓMANO)</t>
+  </si>
+  <si>
+    <t>PROVOCADO POR PERSONA BAJO LA INFLUENCIA DEL ALCOHOL Y/O DROGAS</t>
+  </si>
+  <si>
+    <t>2.1.7</t>
+  </si>
+  <si>
+    <t>2.1.8</t>
+  </si>
+  <si>
+    <t>2.1.9</t>
+  </si>
+  <si>
+    <t>2.1.10</t>
+  </si>
+  <si>
+    <t>2.1.11</t>
+  </si>
+  <si>
+    <t>PROVOCADO PARA OBTENER BENEFICIOS ECONÓMICOS (COMPRA DE MADERA, PRESIÓN POR TRABAJO, ETC.)</t>
+  </si>
+  <si>
+    <t>VANDALISMO (EXCLUIDOS TERRORISMO Y ATENTADO INCENDIARIO)</t>
+  </si>
+  <si>
+    <t>TERRORISMO O SUBVERSIÓN (EXCLUIDO ATENTADO INCENDIARIO)</t>
+  </si>
+  <si>
+    <t>PROVOCADO PARA OBSERVAR OPERACIONES DE COMBATE DE INCENDIOS FORESTALES</t>
+  </si>
+  <si>
+    <t>OTROS INTENCIONALES NO CLASIFICADOS</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>3.1.2</t>
+  </si>
+  <si>
+    <t>CAÍDA DE RAYO</t>
+  </si>
+  <si>
+    <t>ERUPCIÓN VOLCÁNICA</t>
+  </si>
+  <si>
+    <t>OTRAS CAUSAS NATURALES NO CLASIFICADAS</t>
+  </si>
+  <si>
+    <t>4.1.1. DESCONOCIDA (SE INVESTIGA PERO NO ES POSIBLE ESTABLECER LA CAUSA ORIGEN)</t>
+  </si>
+  <si>
+    <t>4.1.2. NO DETERMINADA (LA CAUSA NO ES INVESTIGADA)</t>
+  </si>
+  <si>
+    <t>4.1.1</t>
+  </si>
+  <si>
+    <t>4.1.2</t>
+  </si>
+  <si>
+    <t>Columna1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +883,16 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="18">
@@ -465,7 +1115,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -509,6 +1159,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -527,7 +1178,7 @@
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - Énfasis1 2" xfId="2" xr:uid="{47C73546-4D9D-42C4-A958-92F654FDA737}"/>
     <cellStyle name="20% - Énfasis2 2" xfId="3" xr:uid="{29F82ABC-BF31-43FF-9FCE-F2C9458F8E37}"/>
     <cellStyle name="20% - Énfasis3 2" xfId="4" xr:uid="{B9959803-7CB1-4BFF-8092-D70896D08314}"/>
@@ -563,6 +1214,7 @@
     <cellStyle name="Neutral 2" xfId="33" xr:uid="{83287B29-D557-4E2F-9E8E-6D145D527047}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{AE985125-A74E-449A-B74F-54B2CAD7C1FC}"/>
+    <cellStyle name="Normal 3" xfId="43" xr:uid="{E03AA938-A5F5-48EC-A922-0A8E279C9D71}"/>
     <cellStyle name="Notas 2" xfId="34" xr:uid="{02F302AD-8077-428A-A848-DCF1EF8257A9}"/>
     <cellStyle name="Salida 2" xfId="35" xr:uid="{74222265-F360-433A-9D64-814E6F61454F}"/>
     <cellStyle name="Texto de advertencia 2" xfId="36" xr:uid="{4AD20862-179C-44A7-AE98-2DF6882B9B62}"/>
@@ -596,13 +1248,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{485C757B-C0BD-4DB4-9387-CB036FA40B95}" name="Tabla1" displayName="Tabla1" ref="A1:B9" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{485C757B-C0BD-4DB4-9387-CB036FA40B95}" name="Tabla1" displayName="Tabla1" ref="A1:B9" totalsRowShown="0" dataDxfId="2">
   <autoFilter ref="A1:B9" xr:uid="{13EC2421-7ACE-4BB5-83B7-533722A60A13}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{06C86547-3127-46F9-9E91-F7A93F5C62A0}" name="Concepto" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{D57E67C2-0F97-45C0-B2BE-949DAB07EA26}" name="Definición." dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{06C86547-3127-46F9-9E91-F7A93F5C62A0}" name="Concepto" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{D57E67C2-0F97-45C0-B2BE-949DAB07EA26}" name="Definición." dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{06CB98D1-1BFC-42C5-8D22-8679549529B1}" name="Tabla2" displayName="Tabla2" ref="A1:E90" totalsRowShown="0">
+  <autoFilter ref="A1:E90" xr:uid="{D738CD0D-775B-4AE7-B5AE-242DF9F15ABA}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{05DAA02C-C187-41EB-ABC0-D24DA6468626}" name="Grupo"/>
+    <tableColumn id="2" xr3:uid="{525F6DCB-C3AD-47E4-B77C-003C595E72A9}" name="Cod_general"/>
+    <tableColumn id="3" xr3:uid="{0D9F6E56-9536-4DCE-828F-E73CE6BD5157}" name="Descripción"/>
+    <tableColumn id="4" xr3:uid="{C78E74BA-9AD4-4A87-AFB4-EFF395CEB24A}" name="Cod_específico"/>
+    <tableColumn id="5" xr3:uid="{325EB40F-B49F-4928-8B2F-626FBF663CA4}" name="Columna1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -905,7 +1571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC615BD-C0AB-48CE-8519-35532061F40D}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
@@ -996,11 +1662,1567 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D021DE29-FDE6-4B5D-B0A5-C2883B877E56}">
+  <dimension ref="A1:E90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1"/>
+    <col min="3" max="3" width="52.7265625" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" customWidth="1"/>
+    <col min="5" max="5" width="73.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" t="s">
+        <v>145</v>
+      </c>
+      <c r="E46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" t="s">
+        <v>152</v>
+      </c>
+      <c r="E49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" t="s">
+        <v>157</v>
+      </c>
+      <c r="E50" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" t="s">
+        <v>158</v>
+      </c>
+      <c r="E51" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" t="s">
+        <v>153</v>
+      </c>
+      <c r="E52" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" t="s">
+        <v>164</v>
+      </c>
+      <c r="E54" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" t="s">
+        <v>165</v>
+      </c>
+      <c r="E55" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" t="s">
+        <v>154</v>
+      </c>
+      <c r="E57" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" t="s">
+        <v>173</v>
+      </c>
+      <c r="E59" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" t="s">
+        <v>174</v>
+      </c>
+      <c r="E60" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" t="s">
+        <v>175</v>
+      </c>
+      <c r="E61" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" t="s">
+        <v>41</v>
+      </c>
+      <c r="D62" t="s">
+        <v>176</v>
+      </c>
+      <c r="E62" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" t="s">
+        <v>177</v>
+      </c>
+      <c r="E63" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" t="s">
+        <v>178</v>
+      </c>
+      <c r="E64" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>50</v>
+      </c>
+      <c r="B65" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" t="s">
+        <v>179</v>
+      </c>
+      <c r="E65" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" t="s">
+        <v>41</v>
+      </c>
+      <c r="D66" t="s">
+        <v>180</v>
+      </c>
+      <c r="E66" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" t="s">
+        <v>41</v>
+      </c>
+      <c r="D67" t="s">
+        <v>181</v>
+      </c>
+      <c r="E67" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" t="s">
+        <v>182</v>
+      </c>
+      <c r="E68" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>50</v>
+      </c>
+      <c r="B69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69" t="s">
+        <v>41</v>
+      </c>
+      <c r="D69" t="s">
+        <v>183</v>
+      </c>
+      <c r="E69" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D70" t="s">
+        <v>184</v>
+      </c>
+      <c r="E70" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>50</v>
+      </c>
+      <c r="B71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" t="s">
+        <v>155</v>
+      </c>
+      <c r="E71" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>50</v>
+      </c>
+      <c r="B72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" t="s">
+        <v>199</v>
+      </c>
+      <c r="E72" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>50</v>
+      </c>
+      <c r="B73" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" t="s">
+        <v>200</v>
+      </c>
+      <c r="E73" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>50</v>
+      </c>
+      <c r="B74" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" t="s">
+        <v>201</v>
+      </c>
+      <c r="E74" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>51</v>
+      </c>
+      <c r="B75" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" t="s">
+        <v>44</v>
+      </c>
+      <c r="D75" t="s">
+        <v>206</v>
+      </c>
+      <c r="E75" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>51</v>
+      </c>
+      <c r="B76" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76" t="s">
+        <v>156</v>
+      </c>
+      <c r="E76" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>51</v>
+      </c>
+      <c r="B77" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" t="s">
+        <v>207</v>
+      </c>
+      <c r="E77" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>51</v>
+      </c>
+      <c r="B78" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78" t="s">
+        <v>208</v>
+      </c>
+      <c r="E78" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>51</v>
+      </c>
+      <c r="B79" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79" t="s">
+        <v>209</v>
+      </c>
+      <c r="E79" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>51</v>
+      </c>
+      <c r="B80" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" t="s">
+        <v>44</v>
+      </c>
+      <c r="D80" t="s">
+        <v>210</v>
+      </c>
+      <c r="E80" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>51</v>
+      </c>
+      <c r="B81" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81" t="s">
+        <v>44</v>
+      </c>
+      <c r="D81" t="s">
+        <v>217</v>
+      </c>
+      <c r="E81" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>51</v>
+      </c>
+      <c r="B82" t="s">
+        <v>43</v>
+      </c>
+      <c r="C82" t="s">
+        <v>44</v>
+      </c>
+      <c r="D82" t="s">
+        <v>218</v>
+      </c>
+      <c r="E82" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>51</v>
+      </c>
+      <c r="B83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83" t="s">
+        <v>44</v>
+      </c>
+      <c r="D83" t="s">
+        <v>219</v>
+      </c>
+      <c r="E83" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>51</v>
+      </c>
+      <c r="B84" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84" t="s">
+        <v>44</v>
+      </c>
+      <c r="D84" t="s">
+        <v>220</v>
+      </c>
+      <c r="E84" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" t="s">
+        <v>43</v>
+      </c>
+      <c r="C85" t="s">
+        <v>44</v>
+      </c>
+      <c r="D85" t="s">
+        <v>221</v>
+      </c>
+      <c r="E85" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>52</v>
+      </c>
+      <c r="B86" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86" t="s">
+        <v>46</v>
+      </c>
+      <c r="D86" t="s">
+        <v>227</v>
+      </c>
+      <c r="E86" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>52</v>
+      </c>
+      <c r="B87" t="s">
+        <v>45</v>
+      </c>
+      <c r="C87" t="s">
+        <v>46</v>
+      </c>
+      <c r="D87" t="s">
+        <v>228</v>
+      </c>
+      <c r="E87" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>52</v>
+      </c>
+      <c r="B88" t="s">
+        <v>45</v>
+      </c>
+      <c r="C88" t="s">
+        <v>46</v>
+      </c>
+      <c r="D88" t="s">
+        <v>162</v>
+      </c>
+      <c r="E88" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>53</v>
+      </c>
+      <c r="B89" t="s">
+        <v>47</v>
+      </c>
+      <c r="C89" t="s">
+        <v>48</v>
+      </c>
+      <c r="D89" t="s">
+        <v>234</v>
+      </c>
+      <c r="E89" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>53</v>
+      </c>
+      <c r="B90" t="s">
+        <v>47</v>
+      </c>
+      <c r="C90" t="s">
+        <v>48</v>
+      </c>
+      <c r="D90" t="s">
+        <v>235</v>
+      </c>
+      <c r="E90" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE64DA4-43F7-4742-A3AA-86C2326EACE0}">
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/DATAAGRO_Incendios/Glosario_fuente.xlsx
+++ b/DATAAGRO_Incendios/Glosario_fuente.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\DATAAGRO_Incendios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7106A48-3963-462C-B602-F76169BE9430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92EFBD65-F6C6-46A7-990C-353C2EA100CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="0" windowWidth="13810" windowHeight="9710" firstSheet="1" activeTab="1" xr2:uid="{9D058F0E-872D-485F-A860-63C039E0AF33}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{9D058F0E-872D-485F-A860-63C039E0AF33}"/>
   </bookViews>
   <sheets>
     <sheet name="Glosario_incendios" sheetId="1" r:id="rId1"/>
@@ -734,12 +734,6 @@
     <t>OTRAS CAUSAS NATURALES NO CLASIFICADAS</t>
   </si>
   <si>
-    <t>4.1.1. DESCONOCIDA (SE INVESTIGA PERO NO ES POSIBLE ESTABLECER LA CAUSA ORIGEN)</t>
-  </si>
-  <si>
-    <t>4.1.2. NO DETERMINADA (LA CAUSA NO ES INVESTIGADA)</t>
-  </si>
-  <si>
     <t>4.1.1</t>
   </si>
   <si>
@@ -747,6 +741,12 @@
   </si>
   <si>
     <t>Columna1</t>
+  </si>
+  <si>
+    <t>DESCONOCIDA (SE INVESTIGA PERO NO ES POSIBLE ESTABLECER LA CAUSA ORIGEN)</t>
+  </si>
+  <si>
+    <t>NO DETERMINADA (LA CAUSA NO ES INVESTIGADA)</t>
   </si>
 </sst>
 </file>
@@ -1665,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D021DE29-FDE6-4B5D-B0A5-C2883B877E56}">
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1675,7 +1675,7 @@
     <col min="2" max="2" width="12.81640625" customWidth="1"/>
     <col min="3" max="3" width="52.7265625" customWidth="1"/>
     <col min="4" max="4" width="19.453125" customWidth="1"/>
-    <col min="5" max="5" width="73.90625" customWidth="1"/>
+    <col min="5" max="5" width="87.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1692,7 +1692,7 @@
         <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -3185,10 +3185,10 @@
         <v>48</v>
       </c>
       <c r="D89" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E89" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
@@ -3202,10 +3202,10 @@
         <v>48</v>
       </c>
       <c r="D90" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E90" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/DATAAGRO_Incendios/Glosario_fuente.xlsx
+++ b/DATAAGRO_Incendios/Glosario_fuente.xlsx
@@ -5,19 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\DATAAGRO_Incendios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-AGRO\DATAAGRO_Incendios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92EFBD65-F6C6-46A7-990C-353C2EA100CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BED350-5735-4826-ACBB-0D542E15A028}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{9D058F0E-872D-485F-A860-63C039E0AF33}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="2" xr2:uid="{9D058F0E-872D-485F-A860-63C039E0AF33}"/>
   </bookViews>
   <sheets>
     <sheet name="Glosario_incendios" sheetId="1" r:id="rId1"/>
-    <sheet name="Causas_jerarquía" sheetId="3" r:id="rId2"/>
-    <sheet name="Fuente" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId2"/>
+    <sheet name="Causas_jerarquía" sheetId="3" r:id="rId3"/>
+    <sheet name="Fuente" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="248">
   <si>
     <t>Incendio forestal</t>
   </si>
@@ -747,6 +751,39 @@
   </si>
   <si>
     <t>NO DETERMINADA (LA CAUSA NO ES INVESTIGADA)</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Actividades extinción incendios forestales, estructurales u otros</t>
+  </si>
+  <si>
+    <t>Actividades recreativas</t>
+  </si>
+  <si>
+    <t>Confección y/o extracción productos secundarios del bosque</t>
+  </si>
+  <si>
+    <t>Faenas agríolas y pecuarias</t>
+  </si>
+  <si>
+    <t>Faenas forestales</t>
+  </si>
+  <si>
+    <t>Operaciones en vías férreas</t>
+  </si>
+  <si>
+    <t>Otras actividades</t>
+  </si>
+  <si>
+    <t>Quema de desechos</t>
+  </si>
+  <si>
+    <t>Tránsito de personas  vehículos o aeronaves</t>
   </si>
 </sst>
 </file>
@@ -893,6 +930,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="18">
@@ -1161,7 +1199,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1176,6 +1214,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1245,6 +1287,767 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="user" refreshedDate="44191.839676388889" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="89" xr:uid="{7F4943D1-9401-46E6-8CD5-5CD04B23A741}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabla2"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Grupo" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Cod_general" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Descripción" numFmtId="0">
+      <sharedItems count="13">
+        <s v="Faenas forestales."/>
+        <s v="Faena agrícolas y pecuarias."/>
+        <s v="Confección y/o Extracción Productos Secundarios del bosque."/>
+        <s v="Actividades Recreativas."/>
+        <s v="Operaciones en Vías Férreas."/>
+        <s v="Actividades de Extinción Incendios Forestales, Incendios Estructurales u otros."/>
+        <s v="Tránsito de personas, vehículos o aeronaves."/>
+        <s v="Quema de desechos."/>
+        <s v="Accidentes eléctricos"/>
+        <s v="Otras Actividades"/>
+        <s v="Incendios intencionales"/>
+        <s v="Incendios naturales"/>
+        <s v="Incendios de causa desconocida"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Cod_específico" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Columna1" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="89">
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.1"/>
+    <x v="0"/>
+    <s v="1.1.1 "/>
+    <s v="QUEMA LEGAL DE DESECHOS DE COSECHA FORESTAL (QUEMA PARA REFORESTACIÓN)"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.1"/>
+    <x v="0"/>
+    <s v="1.1.2"/>
+    <s v="QUEMA ILEGAL DE DESECHOS DE COSECHA FORESTAL (QUEMA PARA REFORESTACIÓN)"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.1"/>
+    <x v="0"/>
+    <s v="1.1.3"/>
+    <s v="REBROTE DE QUEMA LEGAL DE COSECHA FORESTAL"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.1"/>
+    <x v="0"/>
+    <s v="1.1.4"/>
+    <s v="REBROTE DE QUEMA ILEGAL DE COSECHA FORESTAL"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.1"/>
+    <x v="0"/>
+    <s v="1.1.5"/>
+    <s v="QUEMA LEGAL DE HABILITACIÓN DE TERRENO FORESTAL (QUEMA PARA FORESTACIÓN)"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.1"/>
+    <x v="0"/>
+    <s v="1.1.6"/>
+    <s v="QUEMA ILEGAL DE HABILITACIÓN DE TERRENO FORESTAL (QUEMA PARA FORESTACIÓN)"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.1"/>
+    <x v="0"/>
+    <s v="1.1.7"/>
+    <s v="REBROTE DE QUEMA LEGAL EN HABILITACIÓN DE TERRENO FORESTAL"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.1"/>
+    <x v="0"/>
+    <s v="1.1.8"/>
+    <s v="REBROTE DE QUEMA ILEGAL EN HABILITACIÓN DE TERRENO FORESTAL"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.1"/>
+    <x v="0"/>
+    <s v="1.1.9"/>
+    <s v="QUEMA LEGAL PARA REDUCCIÓN DE COMBUSTIBLE (SILVICULTURA PREVENTIVA)"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.1"/>
+    <x v="0"/>
+    <s v="1.1.10"/>
+    <s v="QUEMA ILEGAL PARA REDUCCIÓN DE COMBUSTIBLE (SILVICULTURA PREVENTIVA)"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.1"/>
+    <x v="0"/>
+    <s v="1.1.11"/>
+    <s v="REBROTE DE QUEMA LEGAL EN REDUCCIÓN DE COMBUSTIBLE (SILVICULTURA PREVENTIVA)"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.1"/>
+    <x v="0"/>
+    <s v="1.1.12"/>
+    <s v="REBROTE DE QUEMA ILEGAL EN REDUCCIÓN DE COMBUSTIBLE (SILVICULTURA PREVENTIVA)"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.1"/>
+    <x v="0"/>
+    <s v="1.1.13"/>
+    <s v="QUEMA LEGAL CON OTROS FINES FORESTALES (QUEMA SANITARIA, MANEJO DE VIDA SILVESTRE, ETC.)"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.1"/>
+    <x v="0"/>
+    <s v="1.1.14"/>
+    <s v="QUEMA ILEGAL CON OTROS FINES FORESTALES (QUEMA SANITARIA, MANEJO DE VIDA SILVESTRE, ETC.)"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.1"/>
+    <x v="0"/>
+    <s v="1.1.15"/>
+    <s v="REBROTE DE QUEMA LEGAL CON OTROS FINES FORESTALES"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.1"/>
+    <x v="0"/>
+    <s v="1.1.16"/>
+    <s v="REBROTE DE QUEMA ILEGAL CON OTROS FINES FORESTALES"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.1"/>
+    <x v="0"/>
+    <s v="1.1.17"/>
+    <s v="USO DE FUEGO EN ÁREA DE CAMPAMENTO FORESTAL"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.1"/>
+    <x v="0"/>
+    <s v="1.1.18"/>
+    <s v="CHISPA DE MOTOSIERRA EN FAENA DE FORESTAL"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.1"/>
+    <x v="0"/>
+    <s v="1.1.19"/>
+    <s v="CHISPA  MAQUINARIA EN FAENA FORESTAL (SKIDDER, TRACTOR, VEHÍCULO LIVIANO Y PESADO)"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.1"/>
+    <x v="0"/>
+    <s v="1.1.20"/>
+    <s v="INCENDIO DE MAQUINARIA EN FAENA FORESTAL (CAMIÓN, SKIDDER, MOTOSIERRA, ASERRADERO)"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.1"/>
+    <x v="0"/>
+    <s v="1.1.21"/>
+    <s v="CORTE DE CABLE ELÉCTRICO PRODUCTO DE FAENA FORESTAL"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.1"/>
+    <x v="0"/>
+    <s v="1.1.22"/>
+    <s v="OTROS INCENDIOS POR FAENAS FORESTALES NO CLASIFICADAS"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.1"/>
+    <x v="0"/>
+    <s v="1.1.23"/>
+    <s v="USO DE FUEGO EN ZONAS DE FAENAS FORESTALES (ALIMENTACIÓN, CALEFACCIÓN, OTROS)"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.2"/>
+    <x v="1"/>
+    <s v="1.2.1"/>
+    <s v="QUEMA LEGAL DE DESECHOS AGRÍCOLAS"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.2"/>
+    <x v="1"/>
+    <s v="1.2.2"/>
+    <s v="QUEMA ILEGAL DE DESECHOS AGRÍCOLAS"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.2"/>
+    <x v="1"/>
+    <s v="1.2.3"/>
+    <s v="QUEMA LEGAL CON OTROS FINES AGRÍCOLAS (QUEMA SANITARIA, OTRAS)"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.2"/>
+    <x v="1"/>
+    <s v="1.2.4"/>
+    <s v="QUEMA ILEGAL CON OTROS FINES AGRÍCOLA (QUEMA SANITARIA, OTRAS)"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.2"/>
+    <x v="1"/>
+    <s v="1.2.5"/>
+    <s v="CHISPA DE MAQUINARIA EN FAENA AGRÍCOLAS"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.2"/>
+    <x v="1"/>
+    <s v="1.2.6"/>
+    <s v="CORTE DE CABLE ELÉCTRICO PRODUCTO DE FAENA AGRÍCOLAS"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.2"/>
+    <x v="1"/>
+    <s v="1.2.7"/>
+    <s v="USO DE FUEGO EN ACTIVIDADES PECUARIAS (MANEJO DE PRADERAS, OTRAS)"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.2"/>
+    <x v="1"/>
+    <s v="1.2.8"/>
+    <s v="INCENDIO DE  MAQUINARIA AGRÍCOLA"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.2"/>
+    <x v="1"/>
+    <s v="1.2.9"/>
+    <s v="USO DE FUEGO EN ZONAS DE FAENAS AGROPECUARIAS (ALIMENTACIÓN Y CALEFACCIÓN)"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.2"/>
+    <x v="1"/>
+    <s v="1.2.10"/>
+    <s v="OTROS INCENDIOS POR FAENAS AGROPECUARIAS NO CLASIFICADAS"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.3"/>
+    <x v="2"/>
+    <s v="1.3.1"/>
+    <s v="ELABORACIÓN DE CARBÓN"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.3"/>
+    <x v="2"/>
+    <s v="1.3.2"/>
+    <s v="USO DE FUEGO EN FAENA DE EXTRACCIÓN DE HONGOS Y FRUTOS (ROSA MOSQUETA, FRUTILLA, PIÑONES, COCOS DE PALMA, MIEL DE ABEJA, HONGOS OTROS)"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.3"/>
+    <x v="2"/>
+    <s v="1.3.3"/>
+    <s v="USO DE FUEGO EN FAENA DE EXTRACCIÓN Y/O CONFECCIÓN DE LEÑA NO INDUSTRIAL"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.3"/>
+    <x v="2"/>
+    <s v="1.3.4"/>
+    <s v="USO DE FUEGO EN FAENA DE EXTRACCIÓN DE OTROS PRODUCTOS SECUNDARIOS DEL BOSQUE (CORTEZA QUILLAY, HOJA DE BOLDO, MIEL DE PALMA)"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.4"/>
+    <x v="3"/>
+    <s v="1.4.1"/>
+    <s v="USO DE FUEGO PARA ACTIVIDADES RECREATIVAS EN ÁREAS NO HABILITADAS  (EXCURSIONISTAS, PASEANTES, ASADOS)"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.4"/>
+    <x v="3"/>
+    <s v="1.4.2"/>
+    <s v="USO DE FUEGO EN ACTIVIDADES DE CAZA"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.4"/>
+    <x v="3"/>
+    <s v="1.4.3"/>
+    <s v="USO DE FUEGO EN ÁREAS DE CAMPING"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.4"/>
+    <x v="3"/>
+    <s v="1.4.4"/>
+    <s v="USO DE FUEGO EN ACTIVIDADES DE PESCA"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.4"/>
+    <x v="3"/>
+    <s v="1.4.5"/>
+    <s v="NIÑOS JUGANDO CON FUEGO"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.4"/>
+    <x v="3"/>
+    <s v="1.4.6"/>
+    <s v="FUEGOS ARTIFICIALES"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.5"/>
+    <x v="4"/>
+    <s v="1.5.1"/>
+    <s v="CHISPA POR FRICCIÓN EN LÍNEA FÉRREA POR PASO DE TREN O MOTOCARRIL"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.5"/>
+    <x v="4"/>
+    <s v="1.5.2"/>
+    <s v="USO DE FUEGO EN FAENA  DE MANTENCIÓN DE LÍNEAS FÉRREAS"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.5"/>
+    <x v="4"/>
+    <s v="1.5.3"/>
+    <s v="ACCIDENTE FERROVIARIO"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.5"/>
+    <x v="4"/>
+    <s v="1.5.4"/>
+    <s v="CHISPA O CORTE DE CABLES DE TENDIDO ELÉCTRICO DE LÍNEA FÉRREA"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.6"/>
+    <x v="5"/>
+    <s v="1.6.1"/>
+    <s v="REBROTE DE INCENDIO ANTERIOR, DECLARADO CONTROLADO"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.6"/>
+    <x v="5"/>
+    <s v="1.6.2"/>
+    <s v="CAÍDA DE AVIÓN, HELICÓPTERO U OTRAS AERONAVES, EN OPERACIONES DE COMBATE DE INCENDIOS FORESTALES O RECONOCIMIENTOS DE ZONAS"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.6"/>
+    <x v="5"/>
+    <s v="1.6.3"/>
+    <s v="INCENDIO ESTRUCTURAL (CAMPAMENTO FORESTAL, CASA HABITACIÓN U OTRAS EDIFICACIONES)"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.7"/>
+    <x v="6"/>
+    <s v="1.7.1"/>
+    <s v="USO DE FUEGO POR TRANSEÚNTES"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.7"/>
+    <x v="6"/>
+    <s v="1.7.2"/>
+    <s v="USO DE FUEGO EN ACTIVIDADES RELIGIOSAS, DE PEREGRINACIÓN Y DE VENERACIÓN (ANIMITAS)"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.7"/>
+    <x v="6"/>
+    <s v="1.7.3"/>
+    <s v="ACCIDENTE O INCENDIO DE VEHÍCULO EN TRÁNSITO"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.7"/>
+    <x v="6"/>
+    <s v="1.7.4"/>
+    <s v="USO DEL FUEGO PARA SEÑALIZACIÓN EN LA RUTA"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.7"/>
+    <x v="6"/>
+    <s v="1.7.5"/>
+    <s v="CAÍDA DE AVIÓN, HELICÓPTERO U OTRA AERONAVE EN ACTIVIDADES U OPERACIONES DISTINTAS DE INCENDIOS FORESTALES"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.8"/>
+    <x v="7"/>
+    <s v="1.8.1"/>
+    <s v="QUEMA DE BASURAS, DESECHOS VEGETALES U OTROS NO CLASIFICADOS (DISTINTOS DE VERTEDEROS O BASURALES AUTORIZADOS)"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.8"/>
+    <x v="7"/>
+    <s v="1.8.2"/>
+    <s v="QUEMA LEGAL DE ASERRÍN O ASERRÍN ENCENDIDO"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.8"/>
+    <x v="7"/>
+    <s v="1.8.3"/>
+    <s v="QUEMA ILEGAL DE ASERRÍN O ASERRÍN ENCENDIDO"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.8"/>
+    <x v="7"/>
+    <s v="1.8.4"/>
+    <s v="QUEMA LEGAL PARA LIMPIA DE CAMINOS, CANALES, CUNETAS EN PREDIOS RÚSTICOS"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.8"/>
+    <x v="7"/>
+    <s v="1.8.5"/>
+    <s v="QUEMA ILEGAL PARA LIMPIA DE CAMINOS, CANALES, CUNETAS EN PREDIOS RÚSTICOS"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.8"/>
+    <x v="7"/>
+    <s v="1.8.6"/>
+    <s v="REBROTE DE QUEMA LEGAL PARA LIMPIA DE CAMINOS, CANALES, CUNETAS EN PREDIOS RÚSTICOS"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.8"/>
+    <x v="7"/>
+    <s v="1.8.7"/>
+    <s v="REBROTE DE QUEMA ILEGAL PARA LIMPIA DE CAMINOS, CANALES, CUNETAS EN PREDIOS RÚSTICOS"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.8"/>
+    <x v="7"/>
+    <s v="1.8.8"/>
+    <s v="QUEMA LEGAL PARA LIMPIA DE CAMINOS, CANALES, CUNETAS EN CAMINOS PÚBLICOS"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.8"/>
+    <x v="7"/>
+    <s v="1.8.9"/>
+    <s v="QUEMA ILEGAL PARA LIMPIA DE CAMINOS, CANALES, CUNETAS EN CAMINOS PÚBLICOS"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.8"/>
+    <x v="7"/>
+    <s v="1.8.10"/>
+    <s v="REBROTE DE QUEMA LEGAL PARA LIMPIA DE CAMINOS, CANALES, CUNETAS EN CAMINOS PÚBLICOS"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.8"/>
+    <x v="7"/>
+    <s v="1.8.11"/>
+    <s v="REBROTE DE QUEMA ILEGAL PARA LIMPIA DE CAMINOS, CANALES, CUNETAS EN CAMINOS PÚBLICOS"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.8"/>
+    <x v="7"/>
+    <s v="1.8.12"/>
+    <s v="QUEMA DE DESECHOS INDUSTRIALES"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.8"/>
+    <x v="7"/>
+    <s v="1.8.13"/>
+    <s v="USO DE FUEGO PARA ELIMINACIÓN DE FAUNA NO DESEADA  (ROEDORES, REPTILES, AVISPAS, OTROS)"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.8"/>
+    <x v="7"/>
+    <s v="1.8.14"/>
+    <s v="ENCENDIDO DE VERTEDEROS O BASURALES AUTORIZADOS "/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.9"/>
+    <x v="8"/>
+    <s v="1.9.1"/>
+    <s v="CORTE DE CABLE ELÉCTRICO POR CAÍDA DE RAMA (EXCEPTO POR FAENA FORESTAL)"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.10"/>
+    <x v="9"/>
+    <s v="1.9.2"/>
+    <s v="CORTE DE CABLE POR CRECIMIENTO DE VEGETACIÓN BAJO TENDIDO ELÉCTRICO"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.10"/>
+    <x v="9"/>
+    <s v="1.9.3"/>
+    <s v="CORTE DE CABLE POR CAÍDA DE TENDIDO ELÉCTRICO O POSTACIÓN"/>
+  </r>
+  <r>
+    <s v="Accidentales"/>
+    <s v="1.10"/>
+    <x v="9"/>
+    <s v="1.9.4"/>
+    <s v="CORTE DE CABLE POR OTRO ACCIDENTE O ACCIÓN NO CLASIFICADA"/>
+  </r>
+  <r>
+    <s v="Intencionales"/>
+    <s v="2.1"/>
+    <x v="10"/>
+    <s v="2.1.1"/>
+    <s v="PIRÓMANO (INSANO MENTAL QUE DISFRUTA DEL FUEGO)"/>
+  </r>
+  <r>
+    <s v="Intencionales"/>
+    <s v="2.1"/>
+    <x v="10"/>
+    <s v="2.1.2"/>
+    <s v="CONFLICTO ENTRE PERSONAS (VENGANZA, CONFLICTOS FAMILIARES Y  PASIONALES, OTROS)"/>
+  </r>
+  <r>
+    <s v="Intencionales"/>
+    <s v="2.1"/>
+    <x v="10"/>
+    <s v="2.1.3"/>
+    <s v="ATENTADO INCENDIARIO POR CONFLICTO"/>
+  </r>
+  <r>
+    <s v="Intencionales"/>
+    <s v="2.1"/>
+    <x v="10"/>
+    <s v="2.1.4"/>
+    <s v="CONFLICTO TERRITORIAL O PATRIMONIAL"/>
+  </r>
+  <r>
+    <s v="Intencionales"/>
+    <s v="2.1"/>
+    <x v="10"/>
+    <s v="2.1.5"/>
+    <s v="PROVOCADO POR PERSONA ENFERMA (LOCO O DEMENTE, EXCLUIDO EL PIRÓMANO)"/>
+  </r>
+  <r>
+    <s v="Intencionales"/>
+    <s v="2.1"/>
+    <x v="10"/>
+    <s v="2.1.6"/>
+    <s v="PROVOCADO POR PERSONA BAJO LA INFLUENCIA DEL ALCOHOL Y/O DROGAS"/>
+  </r>
+  <r>
+    <s v="Intencionales"/>
+    <s v="2.1"/>
+    <x v="10"/>
+    <s v="2.1.7"/>
+    <s v="PROVOCADO PARA OBTENER BENEFICIOS ECONÓMICOS (COMPRA DE MADERA, PRESIÓN POR TRABAJO, ETC.)"/>
+  </r>
+  <r>
+    <s v="Intencionales"/>
+    <s v="2.1"/>
+    <x v="10"/>
+    <s v="2.1.8"/>
+    <s v="VANDALISMO (EXCLUIDOS TERRORISMO Y ATENTADO INCENDIARIO)"/>
+  </r>
+  <r>
+    <s v="Intencionales"/>
+    <s v="2.1"/>
+    <x v="10"/>
+    <s v="2.1.9"/>
+    <s v="TERRORISMO O SUBVERSIÓN (EXCLUIDO ATENTADO INCENDIARIO)"/>
+  </r>
+  <r>
+    <s v="Intencionales"/>
+    <s v="2.1"/>
+    <x v="10"/>
+    <s v="2.1.10"/>
+    <s v="PROVOCADO PARA OBSERVAR OPERACIONES DE COMBATE DE INCENDIOS FORESTALES"/>
+  </r>
+  <r>
+    <s v="Intencionales"/>
+    <s v="2.1"/>
+    <x v="10"/>
+    <s v="2.1.11"/>
+    <s v="OTROS INTENCIONALES NO CLASIFICADOS"/>
+  </r>
+  <r>
+    <s v="Naturales"/>
+    <s v="3.1"/>
+    <x v="11"/>
+    <s v="3.1.1"/>
+    <s v="CAÍDA DE RAYO"/>
+  </r>
+  <r>
+    <s v="Naturales"/>
+    <s v="3.1"/>
+    <x v="11"/>
+    <s v="3.1.2"/>
+    <s v="ERUPCIÓN VOLCÁNICA"/>
+  </r>
+  <r>
+    <s v="Naturales"/>
+    <s v="3.1"/>
+    <x v="11"/>
+    <s v="3.1.3"/>
+    <s v="OTRAS CAUSAS NATURALES NO CLASIFICADAS"/>
+  </r>
+  <r>
+    <s v="Desconocidas"/>
+    <s v="4.1"/>
+    <x v="12"/>
+    <s v="4.1.1"/>
+    <s v="DESCONOCIDA (SE INVESTIGA PERO NO ES POSIBLE ESTABLECER LA CAUSA ORIGEN)"/>
+  </r>
+  <r>
+    <s v="Desconocidas"/>
+    <s v="4.1"/>
+    <x v="12"/>
+    <s v="4.1.2"/>
+    <s v="NO DETERMINADA (LA CAUSA NO ES INVESTIGADA)"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{18476BF0-71E6-4E8D-B865-52EB61525515}" name="TablaDinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="14">
+        <item x="8"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1575,13 +2378,13 @@
       <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="103.54296875" customWidth="1"/>
+    <col min="2" max="2" width="103.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1589,7 +2392,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1597,7 +2400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1605,7 +2408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1613,7 +2416,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1621,7 +2424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1629,7 +2432,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1637,7 +2440,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1645,7 +2448,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1662,23 +2465,196 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87D4FCC-59BF-45D0-A4D9-B2B4C0573EFE}">
+  <dimension ref="A3:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="65.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D021DE29-FDE6-4B5D-B0A5-C2883B877E56}">
   <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" customWidth="1"/>
-    <col min="3" max="3" width="52.7265625" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" customWidth="1"/>
-    <col min="5" max="5" width="87.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="52.77734375" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="87.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -1695,7 +2671,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1703,7 +2679,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="D2" t="s">
         <v>58</v>
@@ -1712,7 +2688,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1720,7 +2696,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="D3" t="s">
         <v>59</v>
@@ -1729,7 +2705,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -1737,7 +2713,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="D4" t="s">
         <v>60</v>
@@ -1746,7 +2722,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1754,7 +2730,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="D5" t="s">
         <v>61</v>
@@ -1763,7 +2739,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1771,7 +2747,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="D6" t="s">
         <v>62</v>
@@ -1780,7 +2756,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -1788,7 +2764,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="D7" t="s">
         <v>63</v>
@@ -1797,7 +2773,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1805,7 +2781,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="D8" t="s">
         <v>64</v>
@@ -1814,7 +2790,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -1822,7 +2798,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="D9" t="s">
         <v>65</v>
@@ -1831,7 +2807,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -1839,7 +2815,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
@@ -1848,7 +2824,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -1856,7 +2832,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="D11" t="s">
         <v>67</v>
@@ -1865,7 +2841,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1873,7 +2849,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="D12" t="s">
         <v>68</v>
@@ -1882,7 +2858,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1890,7 +2866,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="D13" t="s">
         <v>69</v>
@@ -1899,7 +2875,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -1907,7 +2883,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="D14" t="s">
         <v>70</v>
@@ -1916,7 +2892,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1924,7 +2900,7 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="D15" t="s">
         <v>71</v>
@@ -1933,7 +2909,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1941,7 +2917,7 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="D16" t="s">
         <v>72</v>
@@ -1950,7 +2926,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -1958,7 +2934,7 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="D17" t="s">
         <v>73</v>
@@ -1967,7 +2943,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -1975,7 +2951,7 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="D18" t="s">
         <v>74</v>
@@ -1984,7 +2960,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -1992,7 +2968,7 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="D19" t="s">
         <v>75</v>
@@ -2001,7 +2977,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -2009,7 +2985,7 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="D20" t="s">
         <v>76</v>
@@ -2018,7 +2994,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -2026,7 +3002,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="D21" t="s">
         <v>77</v>
@@ -2035,7 +3011,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -2043,7 +3019,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="D22" t="s">
         <v>78</v>
@@ -2052,7 +3028,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -2060,7 +3036,7 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="D23" t="s">
         <v>79</v>
@@ -2069,7 +3045,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -2077,7 +3053,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="D24" t="s">
         <v>80</v>
@@ -2086,7 +3062,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -2094,7 +3070,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="D25" t="s">
         <v>103</v>
@@ -2103,7 +3079,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -2111,7 +3087,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="D26" t="s">
         <v>104</v>
@@ -2120,7 +3096,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -2128,7 +3104,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="D27" t="s">
         <v>105</v>
@@ -2137,7 +3113,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -2145,7 +3121,7 @@
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="D28" t="s">
         <v>106</v>
@@ -2154,7 +3130,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -2162,7 +3138,7 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="D29" t="s">
         <v>107</v>
@@ -2171,7 +3147,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -2179,7 +3155,7 @@
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="D30" t="s">
         <v>108</v>
@@ -2188,7 +3164,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -2196,7 +3172,7 @@
         <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="D31" t="s">
         <v>109</v>
@@ -2205,7 +3181,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -2213,7 +3189,7 @@
         <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="D32" t="s">
         <v>110</v>
@@ -2222,7 +3198,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -2230,7 +3206,7 @@
         <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="D33" t="s">
         <v>111</v>
@@ -2239,7 +3215,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -2247,7 +3223,7 @@
         <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="D34" t="s">
         <v>112</v>
@@ -2256,7 +3232,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -2264,7 +3240,7 @@
         <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>123</v>
+        <v>241</v>
       </c>
       <c r="D35" t="s">
         <v>124</v>
@@ -2273,7 +3249,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -2281,7 +3257,7 @@
         <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>241</v>
       </c>
       <c r="D36" t="s">
         <v>125</v>
@@ -2290,7 +3266,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -2298,7 +3274,7 @@
         <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>241</v>
       </c>
       <c r="D37" t="s">
         <v>126</v>
@@ -2307,7 +3283,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -2315,7 +3291,7 @@
         <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>241</v>
       </c>
       <c r="D38" t="s">
         <v>127</v>
@@ -2324,7 +3300,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2332,7 +3308,7 @@
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>240</v>
       </c>
       <c r="D39" t="s">
         <v>132</v>
@@ -2341,7 +3317,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -2349,7 +3325,7 @@
         <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>240</v>
       </c>
       <c r="D40" t="s">
         <v>133</v>
@@ -2358,7 +3334,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -2366,7 +3342,7 @@
         <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>240</v>
       </c>
       <c r="D41" t="s">
         <v>134</v>
@@ -2375,7 +3351,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -2383,7 +3359,7 @@
         <v>27</v>
       </c>
       <c r="C42" t="s">
-        <v>37</v>
+        <v>240</v>
       </c>
       <c r="D42" t="s">
         <v>135</v>
@@ -2392,7 +3368,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -2400,7 +3376,7 @@
         <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>37</v>
+        <v>240</v>
       </c>
       <c r="D43" t="s">
         <v>136</v>
@@ -2409,7 +3385,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2417,7 +3393,7 @@
         <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>240</v>
       </c>
       <c r="D44" t="s">
         <v>137</v>
@@ -2426,7 +3402,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -2434,7 +3410,7 @@
         <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="D45" t="s">
         <v>144</v>
@@ -2443,7 +3419,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -2451,7 +3427,7 @@
         <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="D46" t="s">
         <v>145</v>
@@ -2460,7 +3436,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -2468,7 +3444,7 @@
         <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="D47" t="s">
         <v>146</v>
@@ -2477,7 +3453,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -2485,7 +3461,7 @@
         <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="D48" t="s">
         <v>147</v>
@@ -2494,7 +3470,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -2502,7 +3478,7 @@
         <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>239</v>
       </c>
       <c r="D49" t="s">
         <v>152</v>
@@ -2511,7 +3487,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -2519,7 +3495,7 @@
         <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>239</v>
       </c>
       <c r="D50" t="s">
         <v>157</v>
@@ -2528,7 +3504,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2536,7 +3512,7 @@
         <v>29</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>239</v>
       </c>
       <c r="D51" t="s">
         <v>158</v>
@@ -2545,7 +3521,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -2553,7 +3529,7 @@
         <v>30</v>
       </c>
       <c r="C52" t="s">
-        <v>40</v>
+        <v>247</v>
       </c>
       <c r="D52" t="s">
         <v>153</v>
@@ -2562,7 +3538,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -2570,7 +3546,7 @@
         <v>30</v>
       </c>
       <c r="C53" t="s">
-        <v>40</v>
+        <v>247</v>
       </c>
       <c r="D53" t="s">
         <v>163</v>
@@ -2579,7 +3555,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -2587,7 +3563,7 @@
         <v>30</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>247</v>
       </c>
       <c r="D54" t="s">
         <v>164</v>
@@ -2596,7 +3572,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>50</v>
       </c>
@@ -2604,7 +3580,7 @@
         <v>30</v>
       </c>
       <c r="C55" t="s">
-        <v>40</v>
+        <v>247</v>
       </c>
       <c r="D55" t="s">
         <v>165</v>
@@ -2613,7 +3589,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>50</v>
       </c>
@@ -2621,7 +3597,7 @@
         <v>30</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>247</v>
       </c>
       <c r="D56" t="s">
         <v>166</v>
@@ -2630,7 +3606,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>50</v>
       </c>
@@ -2638,7 +3614,7 @@
         <v>31</v>
       </c>
       <c r="C57" t="s">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="D57" t="s">
         <v>154</v>
@@ -2647,7 +3623,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>50</v>
       </c>
@@ -2655,7 +3631,7 @@
         <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="D58" t="s">
         <v>172</v>
@@ -2664,7 +3640,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>50</v>
       </c>
@@ -2672,7 +3648,7 @@
         <v>31</v>
       </c>
       <c r="C59" t="s">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="D59" t="s">
         <v>173</v>
@@ -2681,7 +3657,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>50</v>
       </c>
@@ -2689,7 +3665,7 @@
         <v>31</v>
       </c>
       <c r="C60" t="s">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="D60" t="s">
         <v>174</v>
@@ -2698,7 +3674,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>50</v>
       </c>
@@ -2706,7 +3682,7 @@
         <v>31</v>
       </c>
       <c r="C61" t="s">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="D61" t="s">
         <v>175</v>
@@ -2715,7 +3691,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -2723,7 +3699,7 @@
         <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="D62" t="s">
         <v>176</v>
@@ -2732,7 +3708,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>50</v>
       </c>
@@ -2740,7 +3716,7 @@
         <v>31</v>
       </c>
       <c r="C63" t="s">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="D63" t="s">
         <v>177</v>
@@ -2749,7 +3725,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>50</v>
       </c>
@@ -2757,7 +3733,7 @@
         <v>31</v>
       </c>
       <c r="C64" t="s">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="D64" t="s">
         <v>178</v>
@@ -2766,7 +3742,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>50</v>
       </c>
@@ -2774,7 +3750,7 @@
         <v>31</v>
       </c>
       <c r="C65" t="s">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="D65" t="s">
         <v>179</v>
@@ -2783,7 +3759,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>50</v>
       </c>
@@ -2791,7 +3767,7 @@
         <v>31</v>
       </c>
       <c r="C66" t="s">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="D66" t="s">
         <v>180</v>
@@ -2800,7 +3776,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>50</v>
       </c>
@@ -2808,7 +3784,7 @@
         <v>31</v>
       </c>
       <c r="C67" t="s">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="D67" t="s">
         <v>181</v>
@@ -2817,7 +3793,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>50</v>
       </c>
@@ -2825,7 +3801,7 @@
         <v>31</v>
       </c>
       <c r="C68" t="s">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="D68" t="s">
         <v>182</v>
@@ -2834,7 +3810,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>50</v>
       </c>
@@ -2842,7 +3818,7 @@
         <v>31</v>
       </c>
       <c r="C69" t="s">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="D69" t="s">
         <v>183</v>
@@ -2851,7 +3827,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>50</v>
       </c>
@@ -2859,7 +3835,7 @@
         <v>31</v>
       </c>
       <c r="C70" t="s">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="D70" t="s">
         <v>184</v>
@@ -2868,7 +3844,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>50</v>
       </c>
@@ -2885,7 +3861,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>50</v>
       </c>
@@ -2893,7 +3869,7 @@
         <v>33</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>245</v>
       </c>
       <c r="D72" t="s">
         <v>199</v>
@@ -2902,7 +3878,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>50</v>
       </c>
@@ -2910,7 +3886,7 @@
         <v>33</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>245</v>
       </c>
       <c r="D73" t="s">
         <v>200</v>
@@ -2919,7 +3895,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>50</v>
       </c>
@@ -2927,7 +3903,7 @@
         <v>33</v>
       </c>
       <c r="C74" t="s">
-        <v>34</v>
+        <v>245</v>
       </c>
       <c r="D74" t="s">
         <v>201</v>
@@ -2936,7 +3912,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>51</v>
       </c>
@@ -2953,7 +3929,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>51</v>
       </c>
@@ -2970,7 +3946,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>51</v>
       </c>
@@ -2987,7 +3963,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>51</v>
       </c>
@@ -3004,7 +3980,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>51</v>
       </c>
@@ -3021,7 +3997,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>51</v>
       </c>
@@ -3038,7 +4014,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>51</v>
       </c>
@@ -3055,7 +4031,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>51</v>
       </c>
@@ -3072,7 +4048,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>51</v>
       </c>
@@ -3089,7 +4065,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>51</v>
       </c>
@@ -3106,7 +4082,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>51</v>
       </c>
@@ -3123,7 +4099,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>52</v>
       </c>
@@ -3140,7 +4116,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>52</v>
       </c>
@@ -3157,7 +4133,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>52</v>
       </c>
@@ -3174,7 +4150,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>53</v>
       </c>
@@ -3191,7 +4167,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>53</v>
       </c>
@@ -3217,7 +4193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE64DA4-43F7-4742-A3AA-86C2326EACE0}">
   <dimension ref="B2:C5"/>
   <sheetViews>
@@ -3225,12 +4201,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="44.1796875" customWidth="1"/>
+    <col min="3" max="3" width="44.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
@@ -3238,7 +4214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -3246,13 +4222,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
         <v>9</v>
